--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Amelx-Lamp2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Amelx-Lamp2.xlsx
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Amelx</t>
+  </si>
+  <si>
+    <t>Lamp2</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Amelx</t>
-  </si>
-  <si>
-    <t>Lamp2</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -528,25 +528,25 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.154272</v>
+        <v>1.069782333333333</v>
       </c>
       <c r="H2">
-        <v>0.462816</v>
+        <v>3.209347</v>
       </c>
       <c r="I2">
-        <v>0.07666654518829699</v>
+        <v>0.5403049320348338</v>
       </c>
       <c r="J2">
-        <v>0.07666654518829699</v>
+        <v>0.5403049320348337</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>51.278156</v>
+        <v>62.86930466666666</v>
       </c>
       <c r="N2">
-        <v>153.834468</v>
+        <v>188.607914</v>
       </c>
       <c r="O2">
-        <v>0.09840014096595742</v>
+        <v>0.110909371613604</v>
       </c>
       <c r="P2">
-        <v>0.09840014096595742</v>
+        <v>0.110909371613604</v>
       </c>
       <c r="Q2">
-        <v>7.910783682432</v>
+        <v>67.2564714413509</v>
       </c>
       <c r="R2">
-        <v>71.19705314188801</v>
+        <v>605.308242972158</v>
       </c>
       <c r="S2">
-        <v>0.007543998853901369</v>
+        <v>0.05992488049171445</v>
       </c>
       <c r="T2">
-        <v>0.007543998853901369</v>
+        <v>0.05992488049171445</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,25 +590,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.154272</v>
+        <v>1.069782333333333</v>
       </c>
       <c r="H3">
-        <v>0.462816</v>
+        <v>3.209347</v>
       </c>
       <c r="I3">
-        <v>0.07666654518829699</v>
+        <v>0.5403049320348338</v>
       </c>
       <c r="J3">
-        <v>0.07666654518829699</v>
+        <v>0.5403049320348337</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>723.01773</v>
       </c>
       <c r="O3">
-        <v>0.4624779314924828</v>
+        <v>0.42516477913962</v>
       </c>
       <c r="P3">
-        <v>0.4624779314924828</v>
+        <v>0.42516477913962</v>
       </c>
       <c r="Q3">
-        <v>37.18046374752</v>
+        <v>257.8238647469233</v>
       </c>
       <c r="R3">
-        <v>334.62417372768</v>
+        <v>2320.41478272231</v>
       </c>
       <c r="S3">
-        <v>0.03545658523335855</v>
+        <v>0.2297186270966375</v>
       </c>
       <c r="T3">
-        <v>0.03545658523335855</v>
+        <v>0.2297186270966374</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,25 +652,25 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.154272</v>
+        <v>1.069782333333333</v>
       </c>
       <c r="H4">
-        <v>0.462816</v>
+        <v>3.209347</v>
       </c>
       <c r="I4">
-        <v>0.07666654518829699</v>
+        <v>0.5403049320348338</v>
       </c>
       <c r="J4">
-        <v>0.07666654518829699</v>
+        <v>0.5403049320348337</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>45.96287366666667</v>
+        <v>97.28925299999999</v>
       </c>
       <c r="N4">
-        <v>137.888621</v>
+        <v>291.867759</v>
       </c>
       <c r="O4">
-        <v>0.08820038786107075</v>
+        <v>0.1716304955525929</v>
       </c>
       <c r="P4">
-        <v>0.08820038786107075</v>
+        <v>0.1716304955525929</v>
       </c>
       <c r="Q4">
-        <v>7.090784446303999</v>
+        <v>104.078324082597</v>
       </c>
       <c r="R4">
-        <v>63.817060016736</v>
+        <v>936.704916743373</v>
       </c>
       <c r="S4">
-        <v>0.006762019021576102</v>
+        <v>0.09273280323464855</v>
       </c>
       <c r="T4">
-        <v>0.006762019021576102</v>
+        <v>0.09273280323464853</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,25 +714,25 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.154272</v>
+        <v>1.069782333333333</v>
       </c>
       <c r="H5">
-        <v>0.462816</v>
+        <v>3.209347</v>
       </c>
       <c r="I5">
-        <v>0.07666654518829699</v>
+        <v>0.5403049320348338</v>
       </c>
       <c r="J5">
-        <v>0.07666654518829699</v>
+        <v>0.5403049320348337</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>182.8717853333333</v>
+        <v>165.688484</v>
       </c>
       <c r="N5">
-        <v>548.615356</v>
+        <v>497.065452</v>
       </c>
       <c r="O5">
-        <v>0.350921539680489</v>
+        <v>0.2922953536941831</v>
       </c>
       <c r="P5">
-        <v>0.350921539680489</v>
+        <v>0.2922953536941831</v>
       </c>
       <c r="Q5">
-        <v>28.211996066944</v>
+        <v>177.2506130199827</v>
       </c>
       <c r="R5">
-        <v>253.907964602496</v>
+        <v>1595.255517179844</v>
       </c>
       <c r="S5">
-        <v>0.02690394207946097</v>
+        <v>0.1579286212118333</v>
       </c>
       <c r="T5">
-        <v>0.02690394207946097</v>
+        <v>0.1579286212118333</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.069782333333333</v>
+        <v>0.663689</v>
       </c>
       <c r="H6">
-        <v>3.209347</v>
+        <v>1.991067</v>
       </c>
       <c r="I6">
-        <v>0.5316357835520495</v>
+        <v>0.3352031799963669</v>
       </c>
       <c r="J6">
-        <v>0.5316357835520495</v>
+        <v>0.3352031799963669</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>51.278156</v>
+        <v>62.86930466666666</v>
       </c>
       <c r="N6">
-        <v>153.834468</v>
+        <v>188.607914</v>
       </c>
       <c r="O6">
-        <v>0.09840014096595742</v>
+        <v>0.110909371613604</v>
       </c>
       <c r="P6">
-        <v>0.09840014096595742</v>
+        <v>0.110909371613604</v>
       </c>
       <c r="Q6">
-        <v>54.85646537471066</v>
+        <v>41.72566594491533</v>
       </c>
       <c r="R6">
-        <v>493.708188372396</v>
+        <v>375.530993504238</v>
       </c>
       <c r="S6">
-        <v>0.0523130360440689</v>
+        <v>0.03717717405627886</v>
       </c>
       <c r="T6">
-        <v>0.0523130360440689</v>
+        <v>0.03717717405627886</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.069782333333333</v>
+        <v>0.663689</v>
       </c>
       <c r="H7">
-        <v>3.209347</v>
+        <v>1.991067</v>
       </c>
       <c r="I7">
-        <v>0.5316357835520495</v>
+        <v>0.3352031799963669</v>
       </c>
       <c r="J7">
-        <v>0.5316357835520495</v>
+        <v>0.3352031799963669</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>723.01773</v>
       </c>
       <c r="O7">
-        <v>0.4624779314924828</v>
+        <v>0.42516477913962</v>
       </c>
       <c r="P7">
-        <v>0.4624779314924828</v>
+        <v>0.42516477913962</v>
       </c>
       <c r="Q7">
-        <v>257.8238647469233</v>
+        <v>159.95297140199</v>
       </c>
       <c r="R7">
-        <v>2320.41478272231</v>
+        <v>1439.57674261791</v>
       </c>
       <c r="S7">
-        <v>0.2458698174845372</v>
+        <v>0.1425165859900536</v>
       </c>
       <c r="T7">
-        <v>0.2458698174845372</v>
+        <v>0.1425165859900536</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +900,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.069782333333333</v>
+        <v>0.663689</v>
       </c>
       <c r="H8">
-        <v>3.209347</v>
+        <v>1.991067</v>
       </c>
       <c r="I8">
-        <v>0.5316357835520495</v>
+        <v>0.3352031799963669</v>
       </c>
       <c r="J8">
-        <v>0.5316357835520495</v>
+        <v>0.3352031799963669</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>45.96287366666667</v>
+        <v>97.28925299999999</v>
       </c>
       <c r="N8">
-        <v>137.888621</v>
+        <v>291.867759</v>
       </c>
       <c r="O8">
-        <v>0.08820038786107075</v>
+        <v>0.1716304955525929</v>
       </c>
       <c r="P8">
-        <v>0.08820038786107075</v>
+        <v>0.1716304955525929</v>
       </c>
       <c r="Q8">
-        <v>49.17027023783188</v>
+        <v>64.56980703431699</v>
       </c>
       <c r="R8">
-        <v>442.5324321404869</v>
+        <v>581.128263308853</v>
       </c>
       <c r="S8">
-        <v>0.04689048231011503</v>
+        <v>0.05753108789358145</v>
       </c>
       <c r="T8">
-        <v>0.04689048231011503</v>
+        <v>0.05753108789358145</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,7 +962,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.069782333333333</v>
+        <v>0.663689</v>
       </c>
       <c r="H9">
-        <v>3.209347</v>
+        <v>1.991067</v>
       </c>
       <c r="I9">
-        <v>0.5316357835520495</v>
+        <v>0.3352031799963669</v>
       </c>
       <c r="J9">
-        <v>0.5316357835520495</v>
+        <v>0.3352031799963669</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>182.8717853333333</v>
+        <v>165.688484</v>
       </c>
       <c r="N9">
-        <v>548.615356</v>
+        <v>497.065452</v>
       </c>
       <c r="O9">
-        <v>0.350921539680489</v>
+        <v>0.2922953536941831</v>
       </c>
       <c r="P9">
-        <v>0.350921539680489</v>
+        <v>0.2922953536941831</v>
       </c>
       <c r="Q9">
-        <v>195.6330052147258</v>
+        <v>109.965624257476</v>
       </c>
       <c r="R9">
-        <v>1760.697046932532</v>
+        <v>989.6906183172839</v>
       </c>
       <c r="S9">
-        <v>0.1865624477133284</v>
+        <v>0.09797833205645298</v>
       </c>
       <c r="T9">
-        <v>0.1865624477133284</v>
+        <v>0.09797833205645298</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,25 +1024,25 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.7881923333333334</v>
+        <v>0.246489</v>
       </c>
       <c r="H10">
-        <v>2.364577</v>
+        <v>0.7394670000000001</v>
       </c>
       <c r="I10">
-        <v>0.3916976712596534</v>
+        <v>0.1244918879687994</v>
       </c>
       <c r="J10">
-        <v>0.3916976712596534</v>
+        <v>0.1244918879687994</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>51.278156</v>
+        <v>62.86930466666666</v>
       </c>
       <c r="N10">
-        <v>153.834468</v>
+        <v>188.607914</v>
       </c>
       <c r="O10">
-        <v>0.09840014096595742</v>
+        <v>0.110909371613604</v>
       </c>
       <c r="P10">
-        <v>0.09840014096595742</v>
+        <v>0.110909371613604</v>
       </c>
       <c r="Q10">
-        <v>40.41704942667067</v>
+        <v>15.496592037982</v>
       </c>
       <c r="R10">
-        <v>363.7534448400361</v>
+        <v>139.469328341838</v>
       </c>
       <c r="S10">
-        <v>0.03854310606798714</v>
+        <v>0.01380731706561074</v>
       </c>
       <c r="T10">
-        <v>0.03854310606798714</v>
+        <v>0.01380731706561073</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,25 +1086,25 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.7881923333333334</v>
+        <v>0.246489</v>
       </c>
       <c r="H11">
-        <v>2.364577</v>
+        <v>0.7394670000000001</v>
       </c>
       <c r="I11">
-        <v>0.3916976712596534</v>
+        <v>0.1244918879687994</v>
       </c>
       <c r="J11">
-        <v>0.3916976712596534</v>
+        <v>0.1244918879687994</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>723.01773</v>
       </c>
       <c r="O11">
-        <v>0.4624779314924828</v>
+        <v>0.42516477913962</v>
       </c>
       <c r="P11">
-        <v>0.4624779314924828</v>
+        <v>0.42516477913962</v>
       </c>
       <c r="Q11">
-        <v>189.9590105500234</v>
+        <v>59.40530574999001</v>
       </c>
       <c r="R11">
-        <v>1709.63109495021</v>
+        <v>534.6477517499101</v>
       </c>
       <c r="S11">
-        <v>0.181151528774587</v>
+        <v>0.05292956605292891</v>
       </c>
       <c r="T11">
-        <v>0.1811515287745871</v>
+        <v>0.0529295660529289</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,25 +1148,25 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.7881923333333334</v>
+        <v>0.246489</v>
       </c>
       <c r="H12">
-        <v>2.364577</v>
+        <v>0.7394670000000001</v>
       </c>
       <c r="I12">
-        <v>0.3916976712596534</v>
+        <v>0.1244918879687994</v>
       </c>
       <c r="J12">
-        <v>0.3916976712596534</v>
+        <v>0.1244918879687994</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>45.96287366666667</v>
+        <v>97.28925299999999</v>
       </c>
       <c r="N12">
-        <v>137.888621</v>
+        <v>291.867759</v>
       </c>
       <c r="O12">
-        <v>0.08820038786107075</v>
+        <v>0.1716304955525929</v>
       </c>
       <c r="P12">
-        <v>0.08820038786107075</v>
+        <v>0.1716304955525929</v>
       </c>
       <c r="Q12">
-        <v>36.22758464203523</v>
+        <v>23.980730682717</v>
       </c>
       <c r="R12">
-        <v>326.048261778317</v>
+        <v>215.826576144453</v>
       </c>
       <c r="S12">
-        <v>0.03454788652937962</v>
+        <v>0.02136660442436292</v>
       </c>
       <c r="T12">
-        <v>0.03454788652937962</v>
+        <v>0.02136660442436292</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,25 +1210,25 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.7881923333333334</v>
+        <v>0.246489</v>
       </c>
       <c r="H13">
-        <v>2.364577</v>
+        <v>0.7394670000000001</v>
       </c>
       <c r="I13">
-        <v>0.3916976712596534</v>
+        <v>0.1244918879687994</v>
       </c>
       <c r="J13">
-        <v>0.3916976712596534</v>
+        <v>0.1244918879687994</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>182.8717853333333</v>
+        <v>165.688484</v>
       </c>
       <c r="N13">
-        <v>548.615356</v>
+        <v>497.065452</v>
       </c>
       <c r="O13">
-        <v>0.350921539680489</v>
+        <v>0.2922953536941831</v>
       </c>
       <c r="P13">
-        <v>0.350921539680489</v>
+        <v>0.2922953536941831</v>
       </c>
       <c r="Q13">
-        <v>144.1381391827125</v>
+        <v>40.840388732676</v>
       </c>
       <c r="R13">
-        <v>1297.243252644412</v>
+        <v>367.563498594084</v>
       </c>
       <c r="S13">
-        <v>0.1374551498876996</v>
+        <v>0.03638840042589683</v>
       </c>
       <c r="T13">
-        <v>0.1374551498876996</v>
+        <v>0.03638840042589683</v>
       </c>
     </row>
   </sheetData>
